--- a/excel/ningde/exportedExcelNingde.xlsx
+++ b/excel/ningde/exportedExcelNingde.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.ou\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyan\Desktop\NBgupiao\stockapp\excel\ningde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7932E6F-635A-4870-AF63-D42233BB2F5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410A3593-61DA-434F-ADAB-6D895A9C319C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7FAD3637-3329-4F13-AF79-0496E5A7E1F6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>科目\时间</t>
   </si>
@@ -214,15 +214,6 @@
   </si>
   <si>
     <t>2017-03-31</t>
-  </si>
-  <si>
-    <t>2016-12-31</t>
-  </si>
-  <si>
-    <t>2015-12-31</t>
-  </si>
-  <si>
-    <t>2014-12-31</t>
   </si>
   <si>
     <t>--</t>
@@ -649,8 +640,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:AD57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,42 +712,18 @@
       <c r="R1" s="2">
         <v>18</v>
       </c>
-      <c r="S1" s="2">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2">
-        <v>22</v>
-      </c>
-      <c r="W1" s="2">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>30</v>
-      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -813,42 +780,18 @@
       <c r="R2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="5">
-        <v>0</v>
-      </c>
-      <c r="W2" s="5">
-        <v>0</v>
-      </c>
-      <c r="X2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>0</v>
-      </c>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -905,42 +848,18 @@
       <c r="R3" s="8">
         <v>-0.12</v>
       </c>
-      <c r="S3" s="8">
-        <v>0</v>
-      </c>
-      <c r="T3" s="8">
-        <v>0</v>
-      </c>
-      <c r="U3" s="8">
-        <v>0</v>
-      </c>
-      <c r="V3" s="8">
-        <v>0</v>
-      </c>
-      <c r="W3" s="8">
-        <v>0</v>
-      </c>
-      <c r="X3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="8">
-        <v>0</v>
-      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -997,42 +916,18 @@
       <c r="R4" s="8">
         <v>-1.29</v>
       </c>
-      <c r="S4" s="8">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8">
-        <v>0</v>
-      </c>
-      <c r="X4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="8">
-        <v>0</v>
-      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -1089,42 +984,18 @@
       <c r="R5" s="8">
         <v>14.54</v>
       </c>
-      <c r="S5" s="8">
-        <v>0</v>
-      </c>
-      <c r="T5" s="8">
-        <v>0</v>
-      </c>
-      <c r="U5" s="8">
-        <v>0</v>
-      </c>
-      <c r="V5" s="8">
-        <v>0</v>
-      </c>
-      <c r="W5" s="8">
-        <v>0</v>
-      </c>
-      <c r="X5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="8">
-        <v>0</v>
-      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -1181,42 +1052,18 @@
       <c r="R6" s="8">
         <v>1.94</v>
       </c>
-      <c r="S6" s="8">
-        <v>0</v>
-      </c>
-      <c r="T6" s="8">
-        <v>0</v>
-      </c>
-      <c r="U6" s="8">
-        <v>0</v>
-      </c>
-      <c r="V6" s="8">
-        <v>0</v>
-      </c>
-      <c r="W6" s="8">
-        <v>0</v>
-      </c>
-      <c r="X6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="8">
-        <v>0</v>
-      </c>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -1273,42 +1120,18 @@
       <c r="R7" s="8">
         <v>24.59</v>
       </c>
-      <c r="S7" s="8">
-        <v>0</v>
-      </c>
-      <c r="T7" s="8">
-        <v>0</v>
-      </c>
-      <c r="U7" s="8">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8">
-        <v>0</v>
-      </c>
-      <c r="W7" s="8">
-        <v>0</v>
-      </c>
-      <c r="X7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="8">
-        <v>0</v>
-      </c>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1365,42 +1188,18 @@
       <c r="R8" s="8">
         <v>0</v>
       </c>
-      <c r="S8" s="8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="8">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="8">
-        <v>0</v>
-      </c>
-      <c r="X8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>0</v>
-      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1457,42 +1256,18 @@
       <c r="R9" s="8">
         <v>-41.28</v>
       </c>
-      <c r="S9" s="8">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0</v>
-      </c>
-      <c r="U9" s="8">
-        <v>0</v>
-      </c>
-      <c r="V9" s="8">
-        <v>0</v>
-      </c>
-      <c r="W9" s="8">
-        <v>0</v>
-      </c>
-      <c r="X9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>0</v>
-      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1549,42 +1324,18 @@
       <c r="R10" s="8">
         <v>29.32</v>
       </c>
-      <c r="S10" s="8">
-        <v>0</v>
-      </c>
-      <c r="T10" s="8">
-        <v>0</v>
-      </c>
-      <c r="U10" s="8">
-        <v>0</v>
-      </c>
-      <c r="V10" s="8">
-        <v>0</v>
-      </c>
-      <c r="W10" s="8">
-        <v>0</v>
-      </c>
-      <c r="X10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>0</v>
-      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1641,42 +1392,18 @@
       <c r="R11" s="8">
         <v>9.0500000000000007</v>
       </c>
-      <c r="S11" s="8">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8">
-        <v>0</v>
-      </c>
-      <c r="U11" s="8">
-        <v>0</v>
-      </c>
-      <c r="V11" s="8">
-        <v>0</v>
-      </c>
-      <c r="W11" s="8">
-        <v>0</v>
-      </c>
-      <c r="X11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>0</v>
-      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1733,42 +1460,18 @@
       <c r="R12" s="8">
         <v>0.75</v>
       </c>
-      <c r="S12" s="8">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8">
-        <v>0</v>
-      </c>
-      <c r="U12" s="8">
-        <v>0</v>
-      </c>
-      <c r="V12" s="8">
-        <v>0</v>
-      </c>
-      <c r="W12" s="8">
-        <v>0</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>0</v>
-      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1825,42 +1528,18 @@
       <c r="R13" s="8">
         <v>5.38</v>
       </c>
-      <c r="S13" s="8">
-        <v>0</v>
-      </c>
-      <c r="T13" s="8">
-        <v>0</v>
-      </c>
-      <c r="U13" s="8">
-        <v>0</v>
-      </c>
-      <c r="V13" s="8">
-        <v>0</v>
-      </c>
-      <c r="W13" s="8">
-        <v>0</v>
-      </c>
-      <c r="X13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>0</v>
-      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1917,42 +1596,18 @@
       <c r="R14" s="8">
         <v>0</v>
       </c>
-      <c r="S14" s="8">
-        <v>0</v>
-      </c>
-      <c r="T14" s="8">
-        <v>0</v>
-      </c>
-      <c r="U14" s="8">
-        <v>0</v>
-      </c>
-      <c r="V14" s="8">
-        <v>0</v>
-      </c>
-      <c r="W14" s="8">
-        <v>0</v>
-      </c>
-      <c r="X14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="8">
-        <v>0</v>
-      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -2009,42 +1664,18 @@
       <c r="R15" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S15" s="8">
-        <v>0</v>
-      </c>
-      <c r="T15" s="8">
-        <v>0</v>
-      </c>
-      <c r="U15" s="8">
-        <v>0</v>
-      </c>
-      <c r="V15" s="8">
-        <v>0</v>
-      </c>
-      <c r="W15" s="8">
-        <v>0</v>
-      </c>
-      <c r="X15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="8">
-        <v>0</v>
-      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -2101,42 +1732,18 @@
       <c r="R16" s="8">
         <v>-0.13</v>
       </c>
-      <c r="S16" s="8">
-        <v>0</v>
-      </c>
-      <c r="T16" s="8">
-        <v>0</v>
-      </c>
-      <c r="U16" s="8">
-        <v>0</v>
-      </c>
-      <c r="V16" s="8">
-        <v>0</v>
-      </c>
-      <c r="W16" s="8">
-        <v>0</v>
-      </c>
-      <c r="X16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="8">
-        <v>0</v>
-      </c>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -2166,72 +1773,28 @@
       <c r="H19" s="11">
         <v>2014</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-      <c r="O19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="T19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="U19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="V19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="W19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="X19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Y19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AD19" s="11" t="e">
-        <v>#REF!</v>
-      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
@@ -2258,72 +1821,28 @@
       <c r="H20" s="8">
         <v>0.6</v>
       </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="T20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="U20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="V20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="W20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="X20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Y20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AD20" s="8" t="e">
-        <v>#REF!</v>
-      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -2350,72 +1869,28 @@
       <c r="H21" s="8">
         <v>18.93</v>
       </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8">
-        <v>0</v>
-      </c>
-      <c r="O21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="T21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="U21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="V21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="W21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="X21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Y21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AD21" s="8" t="e">
-        <v>#REF!</v>
-      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
@@ -2442,72 +1917,28 @@
       <c r="H22" s="8">
         <v>2.4300000000000002</v>
       </c>
-      <c r="I22" s="8">
-        <v>0</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="T22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="U22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="V22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="W22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="X22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Y22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AD22" s="8" t="e">
-        <v>#REF!</v>
-      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -2534,72 +1965,28 @@
       <c r="H23" s="8">
         <v>9.82</v>
       </c>
-      <c r="I23" s="8">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="T23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="U23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="V23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="W23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="X23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Y23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AD23" s="8" t="e">
-        <v>#REF!</v>
-      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -2626,72 +2013,28 @@
       <c r="H24" s="8">
         <v>28.75</v>
       </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8">
-        <v>0</v>
-      </c>
-      <c r="N24" s="8">
-        <v>0</v>
-      </c>
-      <c r="O24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="T24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="U24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="V24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="W24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="X24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Y24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AD24" s="8" t="e">
-        <v>#REF!</v>
-      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
@@ -2718,72 +2061,28 @@
       <c r="H25" s="8">
         <v>9.36</v>
       </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0</v>
-      </c>
-      <c r="N25" s="8">
-        <v>0</v>
-      </c>
-      <c r="O25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="T25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="U25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="V25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="W25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="X25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Y25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AD25" s="8" t="e">
-        <v>#REF!</v>
-      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
@@ -2810,72 +2109,28 @@
       <c r="H26" s="8">
         <v>16.03</v>
       </c>
-      <c r="I26" s="8">
-        <v>0</v>
-      </c>
-      <c r="J26" s="8">
-        <v>0</v>
-      </c>
-      <c r="K26" s="8">
-        <v>0</v>
-      </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="M26" s="8">
-        <v>0</v>
-      </c>
-      <c r="N26" s="8">
-        <v>0</v>
-      </c>
-      <c r="O26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="T26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="U26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="V26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="W26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="X26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Y26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AD26" s="8" t="e">
-        <v>#REF!</v>
-      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
@@ -2902,72 +2157,28 @@
       <c r="H27" s="8">
         <v>25.4</v>
       </c>
-      <c r="I27" s="8">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8">
-        <v>0</v>
-      </c>
-      <c r="L27" s="8">
-        <v>0</v>
-      </c>
-      <c r="M27" s="8">
-        <v>0</v>
-      </c>
-      <c r="N27" s="8">
-        <v>0</v>
-      </c>
-      <c r="O27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="T27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="U27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="V27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="W27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="X27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Y27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AD27" s="8" t="e">
-        <v>#REF!</v>
-      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
@@ -2994,72 +2205,28 @@
       <c r="H28" s="8">
         <v>2.57</v>
       </c>
-      <c r="I28" s="8">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
-        <v>0</v>
-      </c>
-      <c r="K28" s="8">
-        <v>0</v>
-      </c>
-      <c r="L28" s="8">
-        <v>0</v>
-      </c>
-      <c r="M28" s="8">
-        <v>0</v>
-      </c>
-      <c r="N28" s="8">
-        <v>0</v>
-      </c>
-      <c r="O28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="T28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="U28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="V28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="W28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="X28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Y28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AD28" s="8" t="e">
-        <v>#REF!</v>
-      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
@@ -3086,72 +2253,28 @@
       <c r="H29" s="8">
         <v>3.35</v>
       </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
-      <c r="J29" s="8">
-        <v>0</v>
-      </c>
-      <c r="K29" s="8">
-        <v>0</v>
-      </c>
-      <c r="L29" s="8">
-        <v>0</v>
-      </c>
-      <c r="M29" s="8">
-        <v>0</v>
-      </c>
-      <c r="N29" s="8">
-        <v>0</v>
-      </c>
-      <c r="O29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="P29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Q29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="R29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="S29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="T29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="U29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="V29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="W29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="X29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Y29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AD29" s="8" t="e">
-        <v>#REF!</v>
-      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
@@ -3208,42 +2331,18 @@
       <c r="R31" s="8">
         <v>5.49</v>
       </c>
-      <c r="S31" s="8">
-        <v>0</v>
-      </c>
-      <c r="T31" s="8">
-        <v>0</v>
-      </c>
-      <c r="U31" s="8">
-        <v>0</v>
-      </c>
-      <c r="V31" s="8">
-        <v>0</v>
-      </c>
-      <c r="W31" s="8">
-        <v>0</v>
-      </c>
-      <c r="X31" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="8">
-        <v>0</v>
-      </c>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
@@ -3300,42 +2399,18 @@
       <c r="R32" s="8">
         <v>-22.65</v>
       </c>
-      <c r="S32" s="8">
-        <v>0</v>
-      </c>
-      <c r="T32" s="8">
-        <v>0</v>
-      </c>
-      <c r="U32" s="8">
-        <v>0</v>
-      </c>
-      <c r="V32" s="8">
-        <v>0</v>
-      </c>
-      <c r="W32" s="8">
-        <v>0</v>
-      </c>
-      <c r="X32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="8">
-        <v>0</v>
-      </c>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
@@ -3409,10 +2484,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="T36" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V36" s="10">
         <v>0</v>
@@ -3489,13 +2564,13 @@
         <v>1.85</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q37" s="10">
         <v>1.86</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S37" s="10">
         <v>2.14</v>
@@ -3581,13 +2656,13 @@
         <v>1.49</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q38" s="10">
         <v>0.76</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S38" s="10">
         <v>1.04</v>
@@ -3673,13 +2748,13 @@
         <v>0.46700000000000003</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="14">
         <v>0.43369999999999997</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S39" s="14">
         <v>0.4476</v>
@@ -3854,10 +2929,10 @@
         <v>1.66E-2</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q41" s="14">
         <v>0.1086</v>
@@ -3866,13 +2941,13 @@
         <v>-6.9999999999999999E-4</v>
       </c>
       <c r="S41" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T41" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V41" s="10">
         <v>0</v>
@@ -3958,13 +3033,13 @@
         <v>0.37759999999999999</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T42" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V42" s="10">
         <v>0</v>
@@ -4314,25 +3389,25 @@
         <v>1.552</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T46" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V46" s="10">
         <v>0</v>
@@ -4406,25 +3481,25 @@
         <v>36.365299999999998</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P47" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R47" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="S47" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T47" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="V47" s="10">
         <v>0</v>
